--- a/src/main/resources/assets/transfer_info.xlsx
+++ b/src/main/resources/assets/transfer_info.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/da-eun/Downloads/dev/src/main/resources/assets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD60875-0560-D74C-B52F-D593A1C37285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="시트 1 - transfer_info" sheetId="1" r:id="rId4"/>
+    <sheet name="시트 1 - transfer_info" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="172">
   <si>
     <t>transfer_info</t>
   </si>
@@ -373,170 +382,168 @@
     <t>3분24초</t>
   </si>
   <si>
+    <t>2분23초</t>
+  </si>
+  <si>
+    <t>김포공항</t>
+  </si>
+  <si>
+    <t>1분42초</t>
+  </si>
+  <si>
+    <t>김포골드라인</t>
+  </si>
+  <si>
+    <t>2분47초</t>
+  </si>
+  <si>
+    <t>서해선</t>
+  </si>
+  <si>
+    <t>까치산</t>
+  </si>
+  <si>
+    <t>신길</t>
+  </si>
+  <si>
+    <t>여의도</t>
+  </si>
+  <si>
+    <t>0분57초</t>
+  </si>
+  <si>
+    <t>공덕</t>
+  </si>
+  <si>
+    <t>1분1초</t>
+  </si>
+  <si>
+    <t>3분49초</t>
+  </si>
+  <si>
+    <t>청구</t>
+  </si>
+  <si>
+    <t>1분27초</t>
+  </si>
+  <si>
+    <t>2분45초</t>
+  </si>
+  <si>
+    <t>3분23초</t>
+  </si>
+  <si>
+    <t>군자</t>
+  </si>
+  <si>
+    <t>천호</t>
+  </si>
+  <si>
+    <t>강동</t>
+  </si>
+  <si>
+    <t>0분16초</t>
+  </si>
+  <si>
+    <t>올림픽공원</t>
+  </si>
+  <si>
+    <t>신내</t>
+  </si>
+  <si>
+    <t>태릉입구</t>
+  </si>
+  <si>
+    <t>석계</t>
+  </si>
+  <si>
+    <t>경원선</t>
+  </si>
+  <si>
+    <t>1분44초</t>
+  </si>
+  <si>
+    <t>보문</t>
+  </si>
+  <si>
+    <t>효창공원앞</t>
+  </si>
+  <si>
+    <t>3분41초</t>
+  </si>
+  <si>
+    <t>2분7초</t>
+  </si>
+  <si>
+    <t>디지털미디어시티</t>
+  </si>
+  <si>
+    <t>0분46초</t>
+  </si>
+  <si>
+    <t>2분35초</t>
+  </si>
+  <si>
+    <t>도봉산</t>
+  </si>
+  <si>
+    <t>0분37초</t>
+  </si>
+  <si>
+    <t>상봉</t>
+  </si>
+  <si>
+    <t>강남구청</t>
+  </si>
+  <si>
+    <t>논현</t>
+  </si>
+  <si>
+    <t>1분7초</t>
+  </si>
+  <si>
+    <t>4분22초</t>
+  </si>
+  <si>
+    <t>이수</t>
+  </si>
+  <si>
+    <t>보라매</t>
+  </si>
+  <si>
+    <t>0분59초</t>
+  </si>
+  <si>
+    <t>가산디지털단지</t>
+  </si>
+  <si>
+    <t>온수</t>
+  </si>
+  <si>
+    <t>1분25초</t>
+  </si>
+  <si>
+    <t>석촌</t>
+  </si>
+  <si>
+    <t>복정</t>
+  </si>
+  <si>
+    <t>0분13초</t>
+  </si>
+  <si>
+    <t>모란</t>
+  </si>
+  <si>
     <t>총신대입구</t>
-  </si>
-  <si>
-    <t>2분23초</t>
-  </si>
-  <si>
-    <t>김포공항</t>
-  </si>
-  <si>
-    <t>1분42초</t>
-  </si>
-  <si>
-    <t>김포골드라인</t>
-  </si>
-  <si>
-    <t>2분47초</t>
-  </si>
-  <si>
-    <t>서해선</t>
-  </si>
-  <si>
-    <t>까치산</t>
-  </si>
-  <si>
-    <t>신길</t>
-  </si>
-  <si>
-    <t>여의도</t>
-  </si>
-  <si>
-    <t>0분57초</t>
-  </si>
-  <si>
-    <t>공덕</t>
-  </si>
-  <si>
-    <t>1분1초</t>
-  </si>
-  <si>
-    <t>3분49초</t>
-  </si>
-  <si>
-    <t>청구</t>
-  </si>
-  <si>
-    <t>1분27초</t>
-  </si>
-  <si>
-    <t>2분45초</t>
-  </si>
-  <si>
-    <t>3분23초</t>
-  </si>
-  <si>
-    <t>군자</t>
-  </si>
-  <si>
-    <t>천호</t>
-  </si>
-  <si>
-    <t>강동</t>
-  </si>
-  <si>
-    <t>0분16초</t>
-  </si>
-  <si>
-    <t>올림픽공원</t>
-  </si>
-  <si>
-    <t>신내</t>
-  </si>
-  <si>
-    <t>태릉입구</t>
-  </si>
-  <si>
-    <t>석계</t>
-  </si>
-  <si>
-    <t>경원선</t>
-  </si>
-  <si>
-    <t>1분44초</t>
-  </si>
-  <si>
-    <t>보문</t>
-  </si>
-  <si>
-    <t>효창공원앞</t>
-  </si>
-  <si>
-    <t>3분41초</t>
-  </si>
-  <si>
-    <t>2분7초</t>
-  </si>
-  <si>
-    <t>디지털미디어시티</t>
-  </si>
-  <si>
-    <t>0분46초</t>
-  </si>
-  <si>
-    <t>2분35초</t>
-  </si>
-  <si>
-    <t>도봉산</t>
-  </si>
-  <si>
-    <t>0분37초</t>
-  </si>
-  <si>
-    <t>상봉</t>
-  </si>
-  <si>
-    <t>강남구청</t>
-  </si>
-  <si>
-    <t>논현</t>
-  </si>
-  <si>
-    <t>1분7초</t>
-  </si>
-  <si>
-    <t>4분22초</t>
-  </si>
-  <si>
-    <t>이수</t>
-  </si>
-  <si>
-    <t>보라매</t>
-  </si>
-  <si>
-    <t>0분59초</t>
-  </si>
-  <si>
-    <t>가산디지털단지</t>
-  </si>
-  <si>
-    <t>온수</t>
-  </si>
-  <si>
-    <t>1분25초</t>
-  </si>
-  <si>
-    <t>석촌</t>
-  </si>
-  <si>
-    <t>복정</t>
-  </si>
-  <si>
-    <t>0분13초</t>
-  </si>
-  <si>
-    <t>모란</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -546,12 +553,27 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Batang"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -689,75 +711,137 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -956,7 +1040,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -974,7 +1058,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1003,7 +1087,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1028,7 +1112,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1053,7 +1137,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1078,7 +1162,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1103,7 +1187,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1128,7 +1212,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1153,7 +1237,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1178,7 +1262,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1203,7 +1287,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1216,9 +1300,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1235,7 +1325,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1253,7 +1343,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1278,7 +1368,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1303,7 +1393,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1328,7 +1418,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1353,7 +1443,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1378,7 +1468,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1403,7 +1493,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1428,7 +1518,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1453,7 +1543,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1478,7 +1568,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1491,9 +1581,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1507,7 +1603,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1525,7 +1621,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1554,7 +1650,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1579,7 +1675,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1604,7 +1700,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1629,7 +1725,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1654,7 +1750,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1679,7 +1775,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1704,7 +1800,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1729,7 +1825,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1754,7 +1850,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1767,2862 +1863,2872 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F142"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="4.35156" style="1" customWidth="1"/>
+    <col min="1" max="2" width="4.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.67188" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.67188" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="4">
+    <row r="3" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>159</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="8">
+    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" t="s" s="10">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s" s="10">
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>309</v>
       </c>
-      <c r="F4" t="s" s="10">
+      <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="8">
+    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" t="s" s="10">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s" s="10">
+      <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>164</v>
       </c>
-      <c r="F5" t="s" s="10">
+      <c r="F5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="8">
+    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" t="s" s="10">
+      <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s" s="10">
+      <c r="D6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>101</v>
       </c>
-      <c r="F6" t="s" s="10">
+      <c r="F6" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="8">
+    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="10">
+      <c r="C7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s" s="10">
+      <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>118</v>
       </c>
-      <c r="F7" t="s" s="10">
+      <c r="F7" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="8">
+    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" t="s" s="10">
+      <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s" s="10">
+      <c r="D8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>312</v>
       </c>
-      <c r="F8" t="s" s="10">
+      <c r="F8" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="8">
+    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C9" t="s" s="10">
+      <c r="C9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s" s="10">
+      <c r="D9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>194</v>
       </c>
-      <c r="F9" t="s" s="10">
+      <c r="F9" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="8">
+    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="10">
+      <c r="C10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s" s="10">
+      <c r="D10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>96</v>
       </c>
-      <c r="F10" t="s" s="10">
+      <c r="F10" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="8">
+    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>1</v>
       </c>
-      <c r="C11" t="s" s="10">
+      <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s" s="10">
+      <c r="D11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>159</v>
       </c>
-      <c r="F11" t="s" s="10">
+      <c r="F11" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="8">
+    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>1</v>
       </c>
-      <c r="C12" t="s" s="10">
+      <c r="C12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s" s="10">
+      <c r="D12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>129</v>
       </c>
-      <c r="F12" t="s" s="10">
+      <c r="F12" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="8">
+    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>1</v>
       </c>
-      <c r="C13" t="s" s="10">
+      <c r="C13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D13" t="s" s="10">
+      <c r="D13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>165</v>
       </c>
-      <c r="F13" t="s" s="10">
+      <c r="F13" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="8">
+    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>1</v>
       </c>
-      <c r="C14" t="s" s="10">
+      <c r="C14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s" s="10">
+      <c r="D14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>203</v>
       </c>
-      <c r="F14" t="s" s="10">
+      <c r="F14" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="8">
+    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>1</v>
       </c>
-      <c r="C15" t="s" s="10">
+      <c r="C15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D15" t="s" s="10">
+      <c r="D15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>180</v>
       </c>
-      <c r="F15" t="s" s="10">
+      <c r="F15" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="8">
+    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>2</v>
       </c>
-      <c r="C16" t="s" s="10">
+      <c r="C16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s" s="10">
+      <c r="D16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>101</v>
       </c>
-      <c r="F16" t="s" s="10">
+      <c r="F16" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="8">
+    <row r="17" spans="1:6" ht="20" customHeight="1">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>2</v>
       </c>
-      <c r="C17" t="s" s="10">
+      <c r="C17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D17" t="s" s="10">
+      <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>149</v>
       </c>
-      <c r="F17" t="s" s="10">
+      <c r="F17" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="8">
+    <row r="18" spans="1:6" ht="20" customHeight="1">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>2</v>
       </c>
-      <c r="C18" t="s" s="10">
+      <c r="C18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D18" t="s" s="10">
+      <c r="D18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>77</v>
       </c>
-      <c r="F18" t="s" s="10">
+      <c r="F18" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="8">
+    <row r="19" spans="1:6" ht="20" customHeight="1">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>2</v>
       </c>
-      <c r="C19" t="s" s="10">
+      <c r="C19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D19" t="s" s="10">
+      <c r="D19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>45</v>
       </c>
-      <c r="F19" t="s" s="10">
+      <c r="F19" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="8">
+    <row r="20" spans="1:6" ht="20" customHeight="1">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>2</v>
       </c>
-      <c r="C20" t="s" s="10">
+      <c r="C20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D20" t="s" s="10">
+      <c r="D20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>234</v>
       </c>
-      <c r="F20" t="s" s="10">
+      <c r="F20" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="8">
+    <row r="21" spans="1:6" ht="20" customHeight="1">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>2</v>
       </c>
-      <c r="C21" t="s" s="10">
+      <c r="C21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D21" t="s" s="10">
+      <c r="D21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>242</v>
       </c>
-      <c r="F21" t="s" s="10">
+      <c r="F21" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="8">
+    <row r="22" spans="1:6" ht="20" customHeight="1">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>2</v>
       </c>
-      <c r="C22" t="s" s="10">
+      <c r="C22" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D22" t="s" s="10">
+      <c r="D22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>99</v>
       </c>
-      <c r="F22" t="s" s="10">
+      <c r="F22" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="8">
+    <row r="23" spans="1:6" ht="20" customHeight="1">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>2</v>
       </c>
-      <c r="C23" t="s" s="10">
+      <c r="C23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D23" t="s" s="10">
+      <c r="D23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>86</v>
       </c>
-      <c r="F23" t="s" s="10">
+      <c r="F23" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="8">
+    <row r="24" spans="1:6" ht="20" customHeight="1">
+      <c r="A24" s="7">
         <v>22</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>2</v>
       </c>
-      <c r="C24" t="s" s="10">
+      <c r="C24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D24" t="s" s="10">
+      <c r="D24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>50</v>
       </c>
-      <c r="F24" t="s" s="10">
+      <c r="F24" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="8">
+    <row r="25" spans="1:6" ht="20" customHeight="1">
+      <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>2</v>
       </c>
-      <c r="C25" t="s" s="10">
+      <c r="C25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D25" t="s" s="10">
+      <c r="D25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>23</v>
       </c>
-      <c r="F25" t="s" s="10">
+      <c r="F25" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="8">
+    <row r="26" spans="1:6" ht="20" customHeight="1">
+      <c r="A26" s="7">
         <v>24</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>2</v>
       </c>
-      <c r="C26" t="s" s="10">
+      <c r="C26" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D26" t="s" s="10">
+      <c r="D26" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>77</v>
       </c>
-      <c r="F26" t="s" s="10">
+      <c r="F26" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="8">
+    <row r="27" spans="1:6" ht="20" customHeight="1">
+      <c r="A27" s="7">
         <v>25</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>2</v>
       </c>
-      <c r="C27" t="s" s="10">
+      <c r="C27" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D27" t="s" s="10">
+      <c r="D27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>190</v>
       </c>
-      <c r="F27" t="s" s="10">
+      <c r="F27" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="8">
+    <row r="28" spans="1:6" ht="20" customHeight="1">
+      <c r="A28" s="7">
         <v>26</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>2</v>
       </c>
-      <c r="C28" t="s" s="10">
+      <c r="C28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D28" t="s" s="10">
+      <c r="D28" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>94</v>
       </c>
-      <c r="F28" t="s" s="10">
+      <c r="F28" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="8">
+    <row r="29" spans="1:6" ht="20" customHeight="1">
+      <c r="A29" s="7">
         <v>27</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>2</v>
       </c>
-      <c r="C29" t="s" s="10">
+      <c r="C29" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D29" t="s" s="10">
+      <c r="D29" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <v>81</v>
       </c>
-      <c r="F29" t="s" s="10">
+      <c r="F29" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="8">
+    <row r="30" spans="1:6" ht="20" customHeight="1">
+      <c r="A30" s="7">
         <v>28</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <v>2</v>
       </c>
-      <c r="C30" t="s" s="10">
+      <c r="C30" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D30" t="s" s="10">
+      <c r="D30" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <v>214</v>
       </c>
-      <c r="F30" t="s" s="10">
+      <c r="F30" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="8">
+    <row r="31" spans="1:6" ht="20" customHeight="1">
+      <c r="A31" s="7">
         <v>29</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="8">
         <v>2</v>
       </c>
-      <c r="C31" t="s" s="10">
+      <c r="C31" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D31" t="s" s="10">
+      <c r="D31" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <v>75</v>
       </c>
-      <c r="F31" t="s" s="10">
+      <c r="F31" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="8">
+    <row r="32" spans="1:6" ht="20" customHeight="1">
+      <c r="A32" s="7">
         <v>30</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>2</v>
       </c>
-      <c r="C32" t="s" s="10">
+      <c r="C32" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D32" t="s" s="10">
+      <c r="D32" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <v>74</v>
       </c>
-      <c r="F32" t="s" s="10">
+      <c r="F32" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="8">
+    <row r="33" spans="1:6" ht="20" customHeight="1">
+      <c r="A33" s="7">
         <v>31</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="8">
         <v>2</v>
       </c>
-      <c r="C33" t="s" s="10">
+      <c r="C33" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D33" t="s" s="10">
+      <c r="D33" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <v>88</v>
       </c>
-      <c r="F33" t="s" s="10">
+      <c r="F33" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="8">
+    <row r="34" spans="1:6" ht="20" customHeight="1">
+      <c r="A34" s="7">
         <v>32</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="8">
         <v>2</v>
       </c>
-      <c r="C34" t="s" s="10">
+      <c r="C34" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D34" t="s" s="10">
+      <c r="D34" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <v>276</v>
       </c>
-      <c r="F34" t="s" s="10">
+      <c r="F34" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="8">
+    <row r="35" spans="1:6" ht="20" customHeight="1">
+      <c r="A35" s="7">
         <v>33</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="8">
         <v>2</v>
       </c>
-      <c r="C35" t="s" s="10">
+      <c r="C35" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D35" t="s" s="10">
+      <c r="D35" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>81</v>
       </c>
-      <c r="F35" t="s" s="10">
+      <c r="F35" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="8">
+    <row r="36" spans="1:6" ht="20" customHeight="1">
+      <c r="A36" s="7">
         <v>34</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="8">
         <v>2</v>
       </c>
-      <c r="C36" t="s" s="10">
+      <c r="C36" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D36" t="s" s="10">
+      <c r="D36" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <v>81</v>
       </c>
-      <c r="F36" t="s" s="10">
+      <c r="F36" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="8">
+    <row r="37" spans="1:6" ht="20" customHeight="1">
+      <c r="A37" s="7">
         <v>35</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="8">
         <v>2</v>
       </c>
-      <c r="C37" t="s" s="10">
+      <c r="C37" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D37" t="s" s="10">
+      <c r="D37" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <v>110</v>
       </c>
-      <c r="F37" t="s" s="10">
+      <c r="F37" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="8">
+    <row r="38" spans="1:6" ht="20" customHeight="1">
+      <c r="A38" s="7">
         <v>36</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="8">
         <v>2</v>
       </c>
-      <c r="C38" t="s" s="10">
+      <c r="C38" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D38" t="s" s="10">
+      <c r="D38" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <v>105</v>
       </c>
-      <c r="F38" t="s" s="10">
+      <c r="F38" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="8">
+    <row r="39" spans="1:6" ht="20" customHeight="1">
+      <c r="A39" s="7">
         <v>37</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="8">
         <v>2</v>
       </c>
-      <c r="C39" t="s" s="10">
+      <c r="C39" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D39" t="s" s="10">
+      <c r="D39" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="10">
         <v>82</v>
       </c>
-      <c r="F39" t="s" s="10">
+      <c r="F39" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="8">
+    <row r="40" spans="1:6" ht="20" customHeight="1">
+      <c r="A40" s="7">
         <v>38</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>2</v>
       </c>
-      <c r="C40" t="s" s="10">
+      <c r="C40" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D40" t="s" s="10">
+      <c r="D40" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="10">
         <v>355</v>
       </c>
-      <c r="F40" t="s" s="10">
+      <c r="F40" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="8">
+    <row r="41" spans="1:6" ht="20" customHeight="1">
+      <c r="A41" s="7">
         <v>39</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <v>2</v>
       </c>
-      <c r="C41" t="s" s="10">
+      <c r="C41" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D41" t="s" s="10">
+      <c r="D41" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="10">
         <v>305</v>
       </c>
-      <c r="F41" t="s" s="10">
+      <c r="F41" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="8">
+    <row r="42" spans="1:6" ht="20" customHeight="1">
+      <c r="A42" s="7">
         <v>40</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="8">
         <v>2</v>
       </c>
-      <c r="C42" t="s" s="10">
+      <c r="C42" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D42" t="s" s="10">
+      <c r="D42" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="10">
         <v>212</v>
       </c>
-      <c r="F42" t="s" s="10">
+      <c r="F42" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="8">
+    <row r="43" spans="1:6" ht="20" customHeight="1">
+      <c r="A43" s="7">
         <v>41</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="8">
         <v>2</v>
       </c>
-      <c r="C43" t="s" s="10">
+      <c r="C43" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D43" t="s" s="10">
+      <c r="D43" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="10">
         <v>159</v>
       </c>
-      <c r="F43" t="s" s="10">
+      <c r="F43" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="8">
+    <row r="44" spans="1:6" ht="20" customHeight="1">
+      <c r="A44" s="7">
         <v>42</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="8">
         <v>2</v>
       </c>
-      <c r="C44" t="s" s="10">
+      <c r="C44" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D44" t="s" s="10">
+      <c r="D44" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="10">
         <v>273</v>
       </c>
-      <c r="F44" t="s" s="10">
+      <c r="F44" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="8">
+    <row r="45" spans="1:6" ht="20" customHeight="1">
+      <c r="A45" s="7">
         <v>43</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="8">
         <v>3</v>
       </c>
-      <c r="C45" t="s" s="10">
+      <c r="C45" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D45" t="s" s="10">
+      <c r="D45" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="10">
         <v>118</v>
       </c>
-      <c r="F45" t="s" s="10">
+      <c r="F45" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="8">
+    <row r="46" spans="1:6" ht="20" customHeight="1">
+      <c r="A46" s="7">
         <v>44</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="8">
         <v>3</v>
       </c>
-      <c r="C46" t="s" s="10">
+      <c r="C46" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D46" t="s" s="10">
+      <c r="D46" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="10">
         <v>117</v>
       </c>
-      <c r="F46" t="s" s="10">
+      <c r="F46" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="8">
+    <row r="47" spans="1:6" ht="20" customHeight="1">
+      <c r="A47" s="7">
         <v>45</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="8">
         <v>3</v>
       </c>
-      <c r="C47" t="s" s="10">
+      <c r="C47" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D47" t="s" s="10">
+      <c r="D47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="10">
         <v>149</v>
       </c>
-      <c r="F47" t="s" s="10">
+      <c r="F47" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="8">
+    <row r="48" spans="1:6" ht="20" customHeight="1">
+      <c r="A48" s="7">
         <v>46</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="8">
         <v>3</v>
       </c>
-      <c r="C48" t="s" s="10">
+      <c r="C48" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D48" t="s" s="10">
+      <c r="D48" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="10">
         <v>75</v>
       </c>
-      <c r="F48" t="s" s="10">
+      <c r="F48" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="8">
+    <row r="49" spans="1:6" ht="20" customHeight="1">
+      <c r="A49" s="7">
         <v>47</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="8">
         <v>3</v>
       </c>
-      <c r="C49" t="s" s="10">
+      <c r="C49" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D49" t="s" s="10">
+      <c r="D49" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="10">
         <v>93</v>
       </c>
-      <c r="F49" t="s" s="10">
+      <c r="F49" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="8">
+    <row r="50" spans="1:6" ht="20" customHeight="1">
+      <c r="A50" s="7">
         <v>48</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="8">
         <v>3</v>
       </c>
-      <c r="C50" t="s" s="10">
+      <c r="C50" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D50" t="s" s="10">
+      <c r="D50" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="10">
         <v>181</v>
       </c>
-      <c r="F50" t="s" s="10">
+      <c r="F50" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="8">
+    <row r="51" spans="1:6" ht="20" customHeight="1">
+      <c r="A51" s="7">
         <v>49</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="8">
         <v>3</v>
       </c>
-      <c r="C51" t="s" s="10">
+      <c r="C51" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D51" t="s" s="10">
+      <c r="D51" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="10">
         <v>100</v>
       </c>
-      <c r="F51" t="s" s="10">
+      <c r="F51" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="8">
+    <row r="52" spans="1:6" ht="20" customHeight="1">
+      <c r="A52" s="7">
         <v>50</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="8">
         <v>3</v>
       </c>
-      <c r="C52" t="s" s="10">
+      <c r="C52" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D52" t="s" s="10">
+      <c r="D52" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="10">
         <v>17</v>
       </c>
-      <c r="F52" t="s" s="10">
+      <c r="F52" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="8">
+    <row r="53" spans="1:6" ht="20" customHeight="1">
+      <c r="A53" s="7">
         <v>51</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="8">
         <v>3</v>
       </c>
-      <c r="C53" t="s" s="10">
+      <c r="C53" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D53" t="s" s="10">
+      <c r="D53" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E53" s="10">
         <v>130</v>
       </c>
-      <c r="F53" t="s" s="10">
+      <c r="F53" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" s="8">
+    <row r="54" spans="1:6" ht="20" customHeight="1">
+      <c r="A54" s="7">
         <v>52</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="8">
         <v>3</v>
       </c>
-      <c r="C54" t="s" s="10">
+      <c r="C54" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D54" t="s" s="10">
+      <c r="D54" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="10">
         <v>155</v>
       </c>
-      <c r="F54" t="s" s="10">
+      <c r="F54" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" s="8">
+    <row r="55" spans="1:6" ht="20" customHeight="1">
+      <c r="A55" s="7">
         <v>53</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="8">
         <v>3</v>
       </c>
-      <c r="C55" t="s" s="10">
+      <c r="C55" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D55" t="s" s="10">
+      <c r="D55" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="10">
         <v>77</v>
       </c>
-      <c r="F55" t="s" s="10">
+      <c r="F55" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" s="8">
+    <row r="56" spans="1:6" ht="20" customHeight="1">
+      <c r="A56" s="7">
         <v>54</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="8">
         <v>3</v>
       </c>
-      <c r="C56" t="s" s="10">
+      <c r="C56" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D56" t="s" s="10">
+      <c r="D56" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="10">
         <v>169</v>
       </c>
-      <c r="F56" t="s" s="10">
+      <c r="F56" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" s="8">
+    <row r="57" spans="1:6" ht="20" customHeight="1">
+      <c r="A57" s="7">
         <v>55</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="8">
         <v>3</v>
       </c>
-      <c r="C57" t="s" s="10">
+      <c r="C57" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D57" t="s" s="10">
+      <c r="D57" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="10">
         <v>155</v>
       </c>
-      <c r="F57" t="s" s="10">
+      <c r="F57" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" s="8">
+    <row r="58" spans="1:6" ht="20" customHeight="1">
+      <c r="A58" s="7">
         <v>56</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="8">
         <v>3</v>
       </c>
-      <c r="C58" t="s" s="10">
+      <c r="C58" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D58" t="s" s="10">
+      <c r="D58" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="10">
         <v>78</v>
       </c>
-      <c r="F58" t="s" s="10">
+      <c r="F58" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="59" ht="20.05" customHeight="1">
-      <c r="A59" s="8">
+    <row r="59" spans="1:6" ht="20" customHeight="1">
+      <c r="A59" s="7">
         <v>57</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="8">
         <v>3</v>
       </c>
-      <c r="C59" t="s" s="10">
+      <c r="C59" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D59" t="s" s="10">
+      <c r="D59" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="10">
         <v>92</v>
       </c>
-      <c r="F59" t="s" s="10">
+      <c r="F59" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" s="8">
+    <row r="60" spans="1:6" ht="20" customHeight="1">
+      <c r="A60" s="7">
         <v>58</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="8">
         <v>3</v>
       </c>
-      <c r="C60" t="s" s="10">
+      <c r="C60" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D60" t="s" s="10">
+      <c r="D60" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="10">
         <v>35</v>
       </c>
-      <c r="F60" t="s" s="10">
+      <c r="F60" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" s="8">
+    <row r="61" spans="1:6" ht="20" customHeight="1">
+      <c r="A61" s="7">
         <v>59</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="8">
         <v>3</v>
       </c>
-      <c r="C61" t="s" s="10">
+      <c r="C61" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D61" t="s" s="10">
+      <c r="D61" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E61" s="10">
         <v>65</v>
       </c>
-      <c r="F61" t="s" s="10">
+      <c r="F61" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="62" ht="20.05" customHeight="1">
-      <c r="A62" s="8">
+    <row r="62" spans="1:6" ht="20" customHeight="1">
+      <c r="A62" s="7">
         <v>60</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="8">
         <v>4</v>
       </c>
-      <c r="C62" t="s" s="10">
+      <c r="C62" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D62" t="s" s="10">
+      <c r="D62" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E62" s="10">
         <v>159</v>
       </c>
-      <c r="F62" t="s" s="10">
+      <c r="F62" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="63" ht="20.05" customHeight="1">
-      <c r="A63" s="8">
+    <row r="63" spans="1:6" ht="20" customHeight="1">
+      <c r="A63" s="7">
         <v>61</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="8">
         <v>4</v>
       </c>
-      <c r="C63" t="s" s="10">
+      <c r="C63" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D63" t="s" s="10">
+      <c r="D63" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E63" s="10">
         <v>224</v>
       </c>
-      <c r="F63" t="s" s="10">
+      <c r="F63" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="64" ht="20.05" customHeight="1">
-      <c r="A64" s="8">
+    <row r="64" spans="1:6" ht="20" customHeight="1">
+      <c r="A64" s="7">
         <v>62</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="8">
         <v>4</v>
       </c>
-      <c r="C64" t="s" s="10">
+      <c r="C64" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D64" t="s" s="10">
+      <c r="D64" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E64" s="10">
         <v>323</v>
       </c>
-      <c r="F64" t="s" s="10">
+      <c r="F64" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="65" ht="20.05" customHeight="1">
-      <c r="A65" s="8">
+    <row r="65" spans="1:6" ht="20" customHeight="1">
+      <c r="A65" s="7">
         <v>63</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="8">
         <v>4</v>
       </c>
-      <c r="C65" t="s" s="10">
+      <c r="C65" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D65" t="s" s="10">
+      <c r="D65" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E65" s="10">
         <v>194</v>
       </c>
-      <c r="F65" t="s" s="10">
+      <c r="F65" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" ht="20.05" customHeight="1">
-      <c r="A66" s="8">
+    <row r="66" spans="1:6" ht="20" customHeight="1">
+      <c r="A66" s="7">
         <v>64</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="8">
         <v>4</v>
       </c>
-      <c r="C66" t="s" s="10">
+      <c r="C66" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D66" t="s" s="10">
+      <c r="D66" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E66" s="10">
         <v>45</v>
       </c>
-      <c r="F66" t="s" s="10">
+      <c r="F66" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="67" ht="20.05" customHeight="1">
-      <c r="A67" s="8">
+    <row r="67" spans="1:6" ht="20" customHeight="1">
+      <c r="A67" s="7">
         <v>65</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="8">
         <v>4</v>
       </c>
-      <c r="C67" t="s" s="10">
+      <c r="C67" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D67" t="s" s="10">
+      <c r="D67" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E67" s="10">
         <v>107</v>
       </c>
-      <c r="F67" t="s" s="10">
+      <c r="F67" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="68" ht="20.05" customHeight="1">
-      <c r="A68" s="8">
+    <row r="68" spans="1:6" ht="20" customHeight="1">
+      <c r="A68" s="7">
         <v>66</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="8">
         <v>4</v>
       </c>
-      <c r="C68" t="s" s="10">
+      <c r="C68" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D68" t="s" s="10">
+      <c r="D68" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E68" s="10">
         <v>74</v>
       </c>
-      <c r="F68" t="s" s="10">
+      <c r="F68" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" ht="20.05" customHeight="1">
-      <c r="A69" s="8">
+    <row r="69" spans="1:6" ht="20" customHeight="1">
+      <c r="A69" s="7">
         <v>67</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="8">
         <v>4</v>
       </c>
-      <c r="C69" t="s" s="10">
+      <c r="C69" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D69" t="s" s="10">
+      <c r="D69" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E69" s="10">
         <v>17</v>
       </c>
-      <c r="F69" t="s" s="10">
+      <c r="F69" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="70" ht="20.05" customHeight="1">
-      <c r="A70" s="8">
+    <row r="70" spans="1:6" ht="20" customHeight="1">
+      <c r="A70" s="7">
         <v>68</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="8">
         <v>4</v>
       </c>
-      <c r="C70" t="s" s="10">
+      <c r="C70" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D70" t="s" s="10">
+      <c r="D70" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E70" s="10">
         <v>278</v>
       </c>
-      <c r="F70" t="s" s="10">
+      <c r="F70" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="71" ht="20.05" customHeight="1">
-      <c r="A71" s="8">
+    <row r="71" spans="1:6" ht="20" customHeight="1">
+      <c r="A71" s="7">
         <v>69</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="8">
         <v>4</v>
       </c>
-      <c r="C71" t="s" s="10">
+      <c r="C71" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D71" t="s" s="10">
+      <c r="D71" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E71" s="10">
         <v>84</v>
       </c>
-      <c r="F71" t="s" s="10">
+      <c r="F71" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="72" ht="20.05" customHeight="1">
-      <c r="A72" s="8">
+    <row r="72" spans="1:6" ht="20" customHeight="1">
+      <c r="A72" s="7">
         <v>70</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="8">
         <v>4</v>
       </c>
-      <c r="C72" t="s" s="10">
+      <c r="C72" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D72" t="s" s="10">
+      <c r="D72" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E72" s="10">
         <v>7</v>
       </c>
-      <c r="F72" t="s" s="10">
+      <c r="F72" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="73" ht="20.05" customHeight="1">
-      <c r="A73" s="8">
+    <row r="73" spans="1:6" ht="20" customHeight="1">
+      <c r="A73" s="7">
         <v>71</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="8">
         <v>4</v>
       </c>
-      <c r="C73" t="s" s="10">
+      <c r="C73" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D73" t="s" s="10">
+      <c r="D73" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E73" s="10">
         <v>78</v>
       </c>
-      <c r="F73" t="s" s="10">
+      <c r="F73" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="74" ht="20.05" customHeight="1">
-      <c r="A74" s="8">
+    <row r="74" spans="1:6" ht="20" customHeight="1">
+      <c r="A74" s="7">
         <v>72</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="8">
         <v>4</v>
       </c>
-      <c r="C74" t="s" s="10">
+      <c r="C74" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D74" t="s" s="10">
+      <c r="D74" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E74" s="10">
         <v>155</v>
       </c>
-      <c r="F74" t="s" s="10">
+      <c r="F74" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="75" ht="20.05" customHeight="1">
-      <c r="A75" s="8">
+    <row r="75" spans="1:6" ht="20" customHeight="1">
+      <c r="A75" s="7">
         <v>73</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="8">
         <v>4</v>
       </c>
-      <c r="C75" t="s" s="10">
+      <c r="C75" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D75" t="s" s="10">
+      <c r="D75" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E75" s="10">
         <v>245</v>
       </c>
-      <c r="F75" t="s" s="10">
+      <c r="F75" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="76" ht="20.05" customHeight="1">
-      <c r="A76" s="8">
+    <row r="76" spans="1:6" ht="20" customHeight="1">
+      <c r="A76" s="7">
         <v>74</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="8">
         <v>4</v>
       </c>
-      <c r="C76" t="s" s="10">
+      <c r="C76" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E76" s="10">
+        <v>171</v>
+      </c>
+      <c r="F76" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D76" t="s" s="10">
+    </row>
+    <row r="77" spans="1:6" ht="20" customHeight="1">
+      <c r="A77" s="7">
+        <v>75</v>
+      </c>
+      <c r="B77" s="8">
+        <v>5</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="10">
+        <v>122</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="20" customHeight="1">
+      <c r="A78" s="7">
+        <v>76</v>
+      </c>
+      <c r="B78" s="8">
+        <v>5</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E78" s="10">
+        <v>106</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="20" customHeight="1">
+      <c r="A79" s="7">
+        <v>77</v>
+      </c>
+      <c r="B79" s="8">
+        <v>5</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E79" s="10">
+        <v>200</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="20" customHeight="1">
+      <c r="A80" s="7">
+        <v>78</v>
+      </c>
+      <c r="B80" s="8">
+        <v>5</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E80" s="10">
+        <v>100</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="20" customHeight="1">
+      <c r="A81" s="7">
+        <v>79</v>
+      </c>
+      <c r="B81" s="8">
+        <v>5</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="10">
+        <v>17</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="20" customHeight="1">
+      <c r="A82" s="7">
+        <v>80</v>
+      </c>
+      <c r="B82" s="8">
+        <v>5</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="10">
+        <v>110</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="20" customHeight="1">
+      <c r="A83" s="7">
+        <v>81</v>
+      </c>
+      <c r="B83" s="8">
+        <v>5</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" s="10">
+        <v>242</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="20" customHeight="1">
+      <c r="A84" s="7">
+        <v>82</v>
+      </c>
+      <c r="B84" s="8">
+        <v>5</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E84" s="10">
+        <v>68</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="20" customHeight="1">
+      <c r="A85" s="7">
+        <v>83</v>
+      </c>
+      <c r="B85" s="8">
+        <v>5</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" s="10">
+        <v>73</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="20" customHeight="1">
+      <c r="A86" s="7">
+        <v>84</v>
+      </c>
+      <c r="B86" s="8">
+        <v>5</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="10">
+        <v>275</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="20" customHeight="1">
+      <c r="A87" s="7">
+        <v>85</v>
+      </c>
+      <c r="B87" s="8">
+        <v>5</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="10">
+        <v>214</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="20" customHeight="1">
+      <c r="A88" s="7">
+        <v>86</v>
+      </c>
+      <c r="B88" s="8">
+        <v>5</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="10">
+        <v>212</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="20" customHeight="1">
+      <c r="A89" s="7">
+        <v>87</v>
+      </c>
+      <c r="B89" s="8">
+        <v>5</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" s="10">
+        <v>312</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="20" customHeight="1">
+      <c r="A90" s="7">
+        <v>88</v>
+      </c>
+      <c r="B90" s="8">
+        <v>5</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="10">
+        <v>117</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="20" customHeight="1">
+      <c r="A91" s="7">
+        <v>89</v>
+      </c>
+      <c r="B91" s="8">
+        <v>5</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="10">
+        <v>77</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="20" customHeight="1">
+      <c r="A92" s="7">
+        <v>90</v>
+      </c>
+      <c r="B92" s="8">
+        <v>5</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="10">
+        <v>234</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="20" customHeight="1">
+      <c r="A93" s="7">
+        <v>91</v>
+      </c>
+      <c r="B93" s="8">
+        <v>5</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="10">
+        <v>107</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="20" customHeight="1">
+      <c r="A94" s="7">
+        <v>92</v>
+      </c>
+      <c r="B94" s="8">
+        <v>5</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" s="10">
+        <v>104</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="20" customHeight="1">
+      <c r="A95" s="7">
+        <v>93</v>
+      </c>
+      <c r="B95" s="8">
+        <v>5</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="10">
+        <v>86</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="20" customHeight="1">
+      <c r="A96" s="7">
+        <v>94</v>
+      </c>
+      <c r="B96" s="8">
+        <v>5</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="10">
+        <v>198</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="20" customHeight="1">
+      <c r="A97" s="7">
+        <v>95</v>
+      </c>
+      <c r="B97" s="8">
+        <v>5</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E97" s="10">
+        <v>244</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="20" customHeight="1">
+      <c r="A98" s="7">
+        <v>96</v>
+      </c>
+      <c r="B98" s="8">
+        <v>5</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E98" s="10">
+        <v>75</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="20" customHeight="1">
+      <c r="A99" s="7">
+        <v>97</v>
+      </c>
+      <c r="B99" s="8">
+        <v>5</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E99" s="10">
+        <v>35</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="20" customHeight="1">
+      <c r="A100" s="7">
+        <v>98</v>
+      </c>
+      <c r="B100" s="8">
+        <v>5</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" s="10">
+        <v>19</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="20" customHeight="1">
+      <c r="A101" s="7">
+        <v>99</v>
+      </c>
+      <c r="B101" s="8">
+        <v>5</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E101" s="10">
+        <v>93</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="20" customHeight="1">
+      <c r="A102" s="7">
+        <v>100</v>
+      </c>
+      <c r="B102" s="8">
+        <v>5</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" s="10">
+        <v>65</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="20" customHeight="1">
+      <c r="A103" s="7">
+        <v>101</v>
+      </c>
+      <c r="B103" s="8">
+        <v>6</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E103" s="10">
+        <v>50</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="20" customHeight="1">
+      <c r="A104" s="7">
+        <v>102</v>
+      </c>
+      <c r="B104" s="8">
+        <v>6</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E104" s="10">
+        <v>46</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="20" customHeight="1">
+      <c r="A105" s="7">
+        <v>103</v>
+      </c>
+      <c r="B105" s="8">
+        <v>6</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E105" s="10">
+        <v>125</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="20" customHeight="1">
+      <c r="A106" s="7">
+        <v>104</v>
+      </c>
+      <c r="B106" s="8">
+        <v>6</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E106" s="10">
+        <v>96</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="20" customHeight="1">
+      <c r="A107" s="7">
+        <v>105</v>
+      </c>
+      <c r="B107" s="8">
+        <v>6</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="10">
+        <v>242</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="20" customHeight="1">
+      <c r="A108" s="7">
+        <v>106</v>
+      </c>
+      <c r="B108" s="8">
+        <v>6</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="10">
+        <v>87</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="20" customHeight="1">
+      <c r="A109" s="7">
+        <v>107</v>
+      </c>
+      <c r="B109" s="8">
+        <v>6</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109" s="10">
+        <v>104</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="20" customHeight="1">
+      <c r="A110" s="7">
+        <v>108</v>
+      </c>
+      <c r="B110" s="8">
+        <v>6</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" s="10">
+        <v>130</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="20" customHeight="1">
+      <c r="A111" s="7">
+        <v>109</v>
+      </c>
+      <c r="B111" s="8">
+        <v>6</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="10">
+        <v>155</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="20" customHeight="1">
+      <c r="A112" s="7">
+        <v>110</v>
+      </c>
+      <c r="B112" s="8">
+        <v>6</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" s="10">
+        <v>110</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="20" customHeight="1">
+      <c r="A113" s="7">
+        <v>111</v>
+      </c>
+      <c r="B113" s="8">
+        <v>6</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" s="10">
+        <v>73</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="20" customHeight="1">
+      <c r="A114" s="7">
+        <v>112</v>
+      </c>
+      <c r="B114" s="8">
+        <v>6</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="10">
+        <v>265</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="20" customHeight="1">
+      <c r="A115" s="7">
+        <v>113</v>
+      </c>
+      <c r="B115" s="8">
+        <v>6</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="10">
+        <v>152</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="20" customHeight="1">
+      <c r="A116" s="7">
+        <v>114</v>
+      </c>
+      <c r="B116" s="8">
+        <v>6</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" s="10">
+        <v>82</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="20" customHeight="1">
+      <c r="A117" s="7">
+        <v>115</v>
+      </c>
+      <c r="B117" s="8">
+        <v>6</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" s="10">
+        <v>55</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="20" customHeight="1">
+      <c r="A118" s="7">
+        <v>116</v>
+      </c>
+      <c r="B118" s="8">
+        <v>6</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="10">
+        <v>186</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="20" customHeight="1">
+      <c r="A119" s="7">
+        <v>117</v>
+      </c>
+      <c r="B119" s="8">
+        <v>6</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119" s="10">
+        <v>100</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="20" customHeight="1">
+      <c r="A120" s="7">
+        <v>118</v>
+      </c>
+      <c r="B120" s="8">
+        <v>6</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E120" s="10">
+        <v>181</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="20" customHeight="1">
+      <c r="A121" s="7">
+        <v>119</v>
+      </c>
+      <c r="B121" s="8">
+        <v>7</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E121" s="10">
+        <v>44</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="20" customHeight="1">
+      <c r="A122" s="7">
+        <v>120</v>
+      </c>
+      <c r="B122" s="8">
+        <v>7</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="10">
+        <v>278</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="20" customHeight="1">
+      <c r="A123" s="7">
+        <v>121</v>
+      </c>
+      <c r="B123" s="8">
+        <v>7</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E123" s="10">
+        <v>46</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="20" customHeight="1">
+      <c r="A124" s="7">
+        <v>122</v>
+      </c>
+      <c r="B124" s="8">
+        <v>7</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" s="10">
+        <v>100</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="20" customHeight="1">
+      <c r="A125" s="7">
+        <v>123</v>
+      </c>
+      <c r="B125" s="8">
+        <v>7</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E125" s="10">
+        <v>100</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="20" customHeight="1">
+      <c r="A126" s="7">
+        <v>124</v>
+      </c>
+      <c r="B126" s="8">
+        <v>7</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126" s="10">
+        <v>75</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="20" customHeight="1">
+      <c r="A127" s="7">
+        <v>125</v>
+      </c>
+      <c r="B127" s="8">
+        <v>7</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" s="10">
+        <v>77</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="20" customHeight="1">
+      <c r="A128" s="7">
+        <v>126</v>
+      </c>
+      <c r="B128" s="8">
+        <v>7</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E128" s="10">
+        <v>125</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="20" customHeight="1">
+      <c r="A129" s="7">
+        <v>127</v>
+      </c>
+      <c r="B129" s="8">
+        <v>7</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E129" s="10">
+        <v>80</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="20" customHeight="1">
+      <c r="A130" s="7">
+        <v>128</v>
+      </c>
+      <c r="B130" s="8">
+        <v>7</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130" s="10">
+        <v>169</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="20" customHeight="1">
+      <c r="A131" s="7">
+        <v>129</v>
+      </c>
+      <c r="B131" s="8">
+        <v>7</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E131" s="10">
+        <v>314</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="20" customHeight="1">
+      <c r="A132" s="7">
+        <v>130</v>
+      </c>
+      <c r="B132" s="8">
+        <v>7</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="10">
         <v>171</v>
       </c>
-      <c r="F76" t="s" s="10">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="77" ht="20.05" customHeight="1">
-      <c r="A77" s="8">
-        <v>75</v>
-      </c>
-      <c r="B77" s="9">
-        <v>5</v>
-      </c>
-      <c r="C77" t="s" s="10">
-        <v>122</v>
-      </c>
-      <c r="D77" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="E77" s="11">
-        <v>122</v>
-      </c>
-      <c r="F77" t="s" s="10">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="78" ht="20.05" customHeight="1">
-      <c r="A78" s="8">
+      <c r="F132" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="20" customHeight="1">
+      <c r="A133" s="7">
+        <v>131</v>
+      </c>
+      <c r="B133" s="8">
+        <v>7</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E133" s="10">
+        <v>71</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="20" customHeight="1">
+      <c r="A134" s="7">
+        <v>132</v>
+      </c>
+      <c r="B134" s="8">
+        <v>7</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" s="10">
+        <v>276</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="20" customHeight="1">
+      <c r="A135" s="7">
+        <v>133</v>
+      </c>
+      <c r="B135" s="8">
+        <v>7</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E135" s="10">
+        <v>110</v>
+      </c>
+      <c r="F135" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="9">
-        <v>5</v>
-      </c>
-      <c r="C78" t="s" s="10">
-        <v>122</v>
-      </c>
-      <c r="D78" t="s" s="10">
+    </row>
+    <row r="136" spans="1:6" ht="20" customHeight="1">
+      <c r="A136" s="7">
+        <v>134</v>
+      </c>
+      <c r="B136" s="8">
+        <v>7</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E136" s="10">
+        <v>102</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="20" customHeight="1">
+      <c r="A137" s="7">
+        <v>136</v>
+      </c>
+      <c r="B137" s="8">
+        <v>8</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E137" s="10">
+        <v>35</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="20" customHeight="1">
+      <c r="A138" s="7">
+        <v>137</v>
+      </c>
+      <c r="B138" s="8">
+        <v>8</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D138" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E78" s="11">
-        <v>106</v>
-      </c>
-      <c r="F78" t="s" s="10">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" ht="20.05" customHeight="1">
-      <c r="A79" s="8">
-        <v>77</v>
-      </c>
-      <c r="B79" s="9">
-        <v>5</v>
-      </c>
-      <c r="C79" t="s" s="10">
-        <v>122</v>
-      </c>
-      <c r="D79" t="s" s="10">
-        <v>124</v>
-      </c>
-      <c r="E79" s="11">
-        <v>200</v>
-      </c>
-      <c r="F79" t="s" s="10">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="80" ht="20.05" customHeight="1">
-      <c r="A80" s="8">
-        <v>78</v>
-      </c>
-      <c r="B80" s="9">
-        <v>5</v>
-      </c>
-      <c r="C80" t="s" s="10">
-        <v>122</v>
-      </c>
-      <c r="D80" t="s" s="10">
-        <v>126</v>
-      </c>
-      <c r="E80" s="11">
-        <v>100</v>
-      </c>
-      <c r="F80" t="s" s="10">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="81" ht="20.05" customHeight="1">
-      <c r="A81" s="8">
-        <v>79</v>
-      </c>
-      <c r="B81" s="9">
-        <v>5</v>
-      </c>
-      <c r="C81" t="s" s="10">
-        <v>127</v>
-      </c>
-      <c r="D81" t="s" s="10">
+      <c r="E138" s="10">
+        <v>82</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="20" customHeight="1">
+      <c r="A139" s="7">
+        <v>138</v>
+      </c>
+      <c r="B139" s="8">
+        <v>8</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D139" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E81" s="11">
-        <v>17</v>
-      </c>
-      <c r="F81" t="s" s="10">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" ht="20.05" customHeight="1">
-      <c r="A82" s="8">
-        <v>80</v>
-      </c>
-      <c r="B82" s="9">
-        <v>5</v>
-      </c>
-      <c r="C82" t="s" s="10">
-        <v>75</v>
-      </c>
-      <c r="D82" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="E82" s="11">
-        <v>110</v>
-      </c>
-      <c r="F82" t="s" s="10">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="83" ht="20.05" customHeight="1">
-      <c r="A83" s="8">
-        <v>81</v>
-      </c>
-      <c r="B83" s="9">
-        <v>5</v>
-      </c>
-      <c r="C83" t="s" s="10">
-        <v>128</v>
-      </c>
-      <c r="D83" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="E83" s="11">
-        <v>242</v>
-      </c>
-      <c r="F83" t="s" s="10">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" ht="20.05" customHeight="1">
-      <c r="A84" s="8">
-        <v>82</v>
-      </c>
-      <c r="B84" s="9">
-        <v>5</v>
-      </c>
-      <c r="C84" t="s" s="10">
-        <v>129</v>
-      </c>
-      <c r="D84" t="s" s="10">
-        <v>58</v>
-      </c>
-      <c r="E84" s="11">
-        <v>68</v>
-      </c>
-      <c r="F84" t="s" s="10">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="85" ht="20.05" customHeight="1">
-      <c r="A85" s="8">
-        <v>83</v>
-      </c>
-      <c r="B85" s="9">
-        <v>5</v>
-      </c>
-      <c r="C85" t="s" s="10">
-        <v>131</v>
-      </c>
-      <c r="D85" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="E85" s="11">
-        <v>73</v>
-      </c>
-      <c r="F85" t="s" s="10">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="86" ht="20.05" customHeight="1">
-      <c r="A86" s="8">
-        <v>84</v>
-      </c>
-      <c r="B86" s="9">
-        <v>5</v>
-      </c>
-      <c r="C86" t="s" s="10">
-        <v>131</v>
-      </c>
-      <c r="D86" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="E86" s="11">
-        <v>275</v>
-      </c>
-      <c r="F86" t="s" s="10">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="87" ht="20.05" customHeight="1">
-      <c r="A87" s="8">
-        <v>85</v>
-      </c>
-      <c r="B87" s="9">
-        <v>5</v>
-      </c>
-      <c r="C87" t="s" s="10">
-        <v>131</v>
-      </c>
-      <c r="D87" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="E87" s="11">
-        <v>214</v>
-      </c>
-      <c r="F87" t="s" s="10">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="88" ht="20.05" customHeight="1">
-      <c r="A88" s="8">
-        <v>86</v>
-      </c>
-      <c r="B88" s="9">
-        <v>5</v>
-      </c>
-      <c r="C88" t="s" s="10">
-        <v>83</v>
-      </c>
-      <c r="D88" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="E88" s="11">
-        <v>212</v>
-      </c>
-      <c r="F88" t="s" s="10">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" ht="20.05" customHeight="1">
-      <c r="A89" s="8">
-        <v>87</v>
-      </c>
-      <c r="B89" s="9">
-        <v>5</v>
-      </c>
-      <c r="C89" t="s" s="10">
-        <v>17</v>
-      </c>
-      <c r="D89" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="E89" s="11">
-        <v>312</v>
-      </c>
-      <c r="F89" t="s" s="10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" ht="20.05" customHeight="1">
-      <c r="A90" s="8">
-        <v>88</v>
-      </c>
-      <c r="B90" s="9">
-        <v>5</v>
-      </c>
-      <c r="C90" t="s" s="10">
-        <v>17</v>
-      </c>
-      <c r="D90" t="s" s="10">
+      <c r="E139" s="10">
+        <v>190</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="20" customHeight="1">
+      <c r="A140" s="7">
+        <v>139</v>
+      </c>
+      <c r="B140" s="8">
+        <v>8</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D140" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="11">
-        <v>117</v>
-      </c>
-      <c r="F90" t="s" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" ht="20.05" customHeight="1">
-      <c r="A91" s="8">
-        <v>89</v>
-      </c>
-      <c r="B91" s="9">
-        <v>5</v>
-      </c>
-      <c r="C91" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="D91" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="E91" s="11">
-        <v>77</v>
-      </c>
-      <c r="F91" t="s" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="92" ht="20.05" customHeight="1">
-      <c r="A92" s="8">
-        <v>90</v>
-      </c>
-      <c r="B92" s="9">
-        <v>5</v>
-      </c>
-      <c r="C92" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="D92" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="E92" s="11">
-        <v>234</v>
-      </c>
-      <c r="F92" t="s" s="10">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="93" ht="20.05" customHeight="1">
-      <c r="A93" s="8">
-        <v>91</v>
-      </c>
-      <c r="B93" s="9">
-        <v>5</v>
-      </c>
-      <c r="C93" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="D93" t="s" s="10">
+      <c r="E140" s="10">
+        <v>35</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="20" customHeight="1">
+      <c r="A141" s="7">
+        <v>140</v>
+      </c>
+      <c r="B141" s="8">
         <v>8</v>
       </c>
-      <c r="E93" s="11">
-        <v>107</v>
-      </c>
-      <c r="F93" t="s" s="10">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" ht="20.05" customHeight="1">
-      <c r="A94" s="8">
-        <v>92</v>
-      </c>
-      <c r="B94" s="9">
-        <v>5</v>
-      </c>
-      <c r="C94" t="s" s="10">
-        <v>134</v>
-      </c>
-      <c r="D94" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="E94" s="11">
-        <v>104</v>
-      </c>
-      <c r="F94" t="s" s="10">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="95" ht="20.05" customHeight="1">
-      <c r="A95" s="8">
-        <v>93</v>
-      </c>
-      <c r="B95" s="9">
-        <v>5</v>
-      </c>
-      <c r="C95" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="D95" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="E95" s="11">
-        <v>86</v>
-      </c>
-      <c r="F95" t="s" s="10">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="96" ht="20.05" customHeight="1">
-      <c r="A96" s="8">
-        <v>94</v>
-      </c>
-      <c r="B96" s="9">
-        <v>5</v>
-      </c>
-      <c r="C96" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="D96" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="E96" s="11">
-        <v>198</v>
-      </c>
-      <c r="F96" t="s" s="10">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="97" ht="20.05" customHeight="1">
-      <c r="A97" s="8">
-        <v>95</v>
-      </c>
-      <c r="B97" s="9">
-        <v>5</v>
-      </c>
-      <c r="C97" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="D97" t="s" s="10">
+      <c r="C141" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D141" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E97" s="11">
-        <v>244</v>
-      </c>
-      <c r="F97" t="s" s="10">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="98" ht="20.05" customHeight="1">
-      <c r="A98" s="8">
-        <v>96</v>
-      </c>
-      <c r="B98" s="9">
-        <v>5</v>
-      </c>
-      <c r="C98" t="s" s="10">
-        <v>138</v>
-      </c>
-      <c r="D98" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="E98" s="11">
-        <v>75</v>
-      </c>
-      <c r="F98" t="s" s="10">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="99" ht="20.05" customHeight="1">
-      <c r="A99" s="8">
-        <v>97</v>
-      </c>
-      <c r="B99" s="9">
-        <v>5</v>
-      </c>
-      <c r="C99" t="s" s="10">
-        <v>139</v>
-      </c>
-      <c r="D99" t="s" s="10">
-        <v>55</v>
-      </c>
-      <c r="E99" s="11">
-        <v>35</v>
-      </c>
-      <c r="F99" t="s" s="10">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="100" ht="20.05" customHeight="1">
-      <c r="A100" s="8">
-        <v>98</v>
-      </c>
-      <c r="B100" s="9">
-        <v>5</v>
-      </c>
-      <c r="C100" t="s" s="10">
-        <v>140</v>
-      </c>
-      <c r="D100" t="s" s="10">
-        <v>20</v>
-      </c>
-      <c r="E100" s="11">
-        <v>19</v>
-      </c>
-      <c r="F100" t="s" s="10">
+      <c r="E141" s="10">
+        <v>16</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="20" customHeight="1">
+      <c r="A142" s="7">
         <v>141</v>
       </c>
-    </row>
-    <row r="101" ht="20.05" customHeight="1">
-      <c r="A101" s="8">
+      <c r="B142" s="8">
+        <v>8</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E142" s="10">
         <v>99</v>
       </c>
-      <c r="B101" s="9">
-        <v>5</v>
-      </c>
-      <c r="C101" t="s" s="10">
-        <v>142</v>
-      </c>
-      <c r="D101" t="s" s="10">
-        <v>58</v>
-      </c>
-      <c r="E101" s="11">
-        <v>93</v>
-      </c>
-      <c r="F101" t="s" s="10">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="102" ht="20.05" customHeight="1">
-      <c r="A102" s="8">
-        <v>100</v>
-      </c>
-      <c r="B102" s="9">
-        <v>5</v>
-      </c>
-      <c r="C102" t="s" s="10">
-        <v>105</v>
-      </c>
-      <c r="D102" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="E102" s="11">
-        <v>65</v>
-      </c>
-      <c r="F102" t="s" s="10">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="103" ht="20.05" customHeight="1">
-      <c r="A103" s="8">
-        <v>101</v>
-      </c>
-      <c r="B103" s="9">
-        <v>6</v>
-      </c>
-      <c r="C103" t="s" s="10">
-        <v>143</v>
-      </c>
-      <c r="D103" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="E103" s="11">
-        <v>50</v>
-      </c>
-      <c r="F103" t="s" s="10">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="104" ht="20.05" customHeight="1">
-      <c r="A104" s="8">
-        <v>102</v>
-      </c>
-      <c r="B104" s="9">
-        <v>6</v>
-      </c>
-      <c r="C104" t="s" s="10">
-        <v>144</v>
-      </c>
-      <c r="D104" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="E104" s="11">
-        <v>46</v>
-      </c>
-      <c r="F104" t="s" s="10">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="105" ht="20.05" customHeight="1">
-      <c r="A105" s="8">
-        <v>103</v>
-      </c>
-      <c r="B105" s="9">
-        <v>6</v>
-      </c>
-      <c r="C105" t="s" s="10">
-        <v>145</v>
-      </c>
-      <c r="D105" t="s" s="10">
-        <v>146</v>
-      </c>
-      <c r="E105" s="11">
-        <v>125</v>
-      </c>
-      <c r="F105" t="s" s="10">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" ht="20.05" customHeight="1">
-      <c r="A106" s="8">
-        <v>104</v>
-      </c>
-      <c r="B106" s="9">
-        <v>6</v>
-      </c>
-      <c r="C106" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="D106" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="E106" s="11">
-        <v>96</v>
-      </c>
-      <c r="F106" t="s" s="10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107" ht="20.05" customHeight="1">
-      <c r="A107" s="8">
-        <v>105</v>
-      </c>
-      <c r="B107" s="9">
-        <v>6</v>
-      </c>
-      <c r="C107" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="D107" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="E107" s="11">
-        <v>242</v>
-      </c>
-      <c r="F107" t="s" s="10">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="108" ht="20.05" customHeight="1">
-      <c r="A108" s="8">
-        <v>106</v>
-      </c>
-      <c r="B108" s="9">
-        <v>6</v>
-      </c>
-      <c r="C108" t="s" s="10">
-        <v>148</v>
-      </c>
-      <c r="D108" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="E108" s="11">
-        <v>87</v>
-      </c>
-      <c r="F108" t="s" s="10">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="109" ht="20.05" customHeight="1">
-      <c r="A109" s="8">
-        <v>107</v>
-      </c>
-      <c r="B109" s="9">
-        <v>6</v>
-      </c>
-      <c r="C109" t="s" s="10">
-        <v>134</v>
-      </c>
-      <c r="D109" t="s" s="10">
-        <v>20</v>
-      </c>
-      <c r="E109" s="11">
-        <v>104</v>
-      </c>
-      <c r="F109" t="s" s="10">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="110" ht="20.05" customHeight="1">
-      <c r="A110" s="8">
-        <v>108</v>
-      </c>
-      <c r="B110" s="9">
-        <v>6</v>
-      </c>
-      <c r="C110" t="s" s="10">
-        <v>92</v>
-      </c>
-      <c r="D110" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="E110" s="11">
-        <v>130</v>
-      </c>
-      <c r="F110" t="s" s="10">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="111" ht="20.05" customHeight="1">
-      <c r="A111" s="8">
-        <v>109</v>
-      </c>
-      <c r="B111" s="9">
-        <v>6</v>
-      </c>
-      <c r="C111" t="s" s="10">
-        <v>117</v>
-      </c>
-      <c r="D111" t="s" s="10">
-        <v>8</v>
-      </c>
-      <c r="E111" s="11">
-        <v>155</v>
-      </c>
-      <c r="F111" t="s" s="10">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="112" ht="20.05" customHeight="1">
-      <c r="A112" s="8">
-        <v>110</v>
-      </c>
-      <c r="B112" s="9">
-        <v>6</v>
-      </c>
-      <c r="C112" t="s" s="10">
-        <v>149</v>
-      </c>
-      <c r="D112" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="E112" s="11">
-        <v>110</v>
-      </c>
-      <c r="F112" t="s" s="10">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="113" ht="20.05" customHeight="1">
-      <c r="A113" s="8">
-        <v>111</v>
-      </c>
-      <c r="B113" s="9">
-        <v>6</v>
-      </c>
-      <c r="C113" t="s" s="10">
-        <v>131</v>
-      </c>
-      <c r="D113" t="s" s="10">
-        <v>20</v>
-      </c>
-      <c r="E113" s="11">
-        <v>73</v>
-      </c>
-      <c r="F113" t="s" s="10">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" ht="20.05" customHeight="1">
-      <c r="A114" s="8">
-        <v>112</v>
-      </c>
-      <c r="B114" s="9">
-        <v>6</v>
-      </c>
-      <c r="C114" t="s" s="10">
-        <v>131</v>
-      </c>
-      <c r="D114" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="E114" s="11">
-        <v>265</v>
-      </c>
-      <c r="F114" t="s" s="10">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" ht="20.05" customHeight="1">
-      <c r="A115" s="8">
-        <v>113</v>
-      </c>
-      <c r="B115" s="9">
-        <v>6</v>
-      </c>
-      <c r="C115" t="s" s="10">
-        <v>131</v>
-      </c>
-      <c r="D115" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="E115" s="11">
-        <v>152</v>
-      </c>
-      <c r="F115" t="s" s="10">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="116" ht="20.05" customHeight="1">
-      <c r="A116" s="8">
-        <v>114</v>
-      </c>
-      <c r="B116" s="9">
-        <v>6</v>
-      </c>
-      <c r="C116" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="D116" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="E116" s="11">
-        <v>82</v>
-      </c>
-      <c r="F116" t="s" s="10">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="117" ht="20.05" customHeight="1">
-      <c r="A117" s="8">
-        <v>115</v>
-      </c>
-      <c r="B117" s="9">
-        <v>6</v>
-      </c>
-      <c r="C117" t="s" s="10">
-        <v>152</v>
-      </c>
-      <c r="D117" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="E117" s="11">
-        <v>55</v>
-      </c>
-      <c r="F117" t="s" s="10">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="118" ht="20.05" customHeight="1">
-      <c r="A118" s="8">
-        <v>116</v>
-      </c>
-      <c r="B118" s="9">
-        <v>6</v>
-      </c>
-      <c r="C118" t="s" s="10">
-        <v>152</v>
-      </c>
-      <c r="D118" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="E118" s="11">
-        <v>186</v>
-      </c>
-      <c r="F118" t="s" s="10">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="119" ht="20.05" customHeight="1">
-      <c r="A119" s="8">
-        <v>117</v>
-      </c>
-      <c r="B119" s="9">
-        <v>6</v>
-      </c>
-      <c r="C119" t="s" s="10">
-        <v>89</v>
-      </c>
-      <c r="D119" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="E119" s="11">
-        <v>100</v>
-      </c>
-      <c r="F119" t="s" s="10">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="120" ht="20.05" customHeight="1">
-      <c r="A120" s="8">
-        <v>118</v>
-      </c>
-      <c r="B120" s="9">
-        <v>6</v>
-      </c>
-      <c r="C120" t="s" s="10">
-        <v>87</v>
-      </c>
-      <c r="D120" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="E120" s="11">
-        <v>181</v>
-      </c>
-      <c r="F120" t="s" s="10">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="121" ht="20.05" customHeight="1">
-      <c r="A121" s="8">
-        <v>119</v>
-      </c>
-      <c r="B121" s="9">
-        <v>7</v>
-      </c>
-      <c r="C121" t="s" s="10">
-        <v>155</v>
-      </c>
-      <c r="D121" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="E121" s="11">
-        <v>44</v>
-      </c>
-      <c r="F121" t="s" s="10">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="122" ht="20.05" customHeight="1">
-      <c r="A122" s="8">
-        <v>120</v>
-      </c>
-      <c r="B122" s="9">
-        <v>7</v>
-      </c>
-      <c r="C122" t="s" s="10">
-        <v>110</v>
-      </c>
-      <c r="D122" t="s" s="10">
-        <v>8</v>
-      </c>
-      <c r="E122" s="11">
-        <v>278</v>
-      </c>
-      <c r="F122" t="s" s="10">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="123" ht="20.05" customHeight="1">
-      <c r="A123" s="8">
-        <v>121</v>
-      </c>
-      <c r="B123" s="9">
-        <v>7</v>
-      </c>
-      <c r="C123" t="s" s="10">
-        <v>144</v>
-      </c>
-      <c r="D123" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="E123" s="11">
-        <v>46</v>
-      </c>
-      <c r="F123" t="s" s="10">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="124" ht="20.05" customHeight="1">
-      <c r="A124" s="8">
-        <v>122</v>
-      </c>
-      <c r="B124" s="9">
-        <v>7</v>
-      </c>
-      <c r="C124" t="s" s="10">
-        <v>157</v>
-      </c>
-      <c r="D124" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="E124" s="11">
-        <v>100</v>
-      </c>
-      <c r="F124" t="s" s="10">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="125" ht="20.05" customHeight="1">
-      <c r="A125" s="8">
-        <v>123</v>
-      </c>
-      <c r="B125" s="9">
-        <v>7</v>
-      </c>
-      <c r="C125" t="s" s="10">
-        <v>157</v>
-      </c>
-      <c r="D125" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="E125" s="11">
-        <v>100</v>
-      </c>
-      <c r="F125" t="s" s="10">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="126" ht="20.05" customHeight="1">
-      <c r="A126" s="8">
-        <v>124</v>
-      </c>
-      <c r="B126" s="9">
-        <v>7</v>
-      </c>
-      <c r="C126" t="s" s="10">
-        <v>138</v>
-      </c>
-      <c r="D126" t="s" s="10">
-        <v>20</v>
-      </c>
-      <c r="E126" s="11">
-        <v>75</v>
-      </c>
-      <c r="F126" t="s" s="10">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="127" ht="20.05" customHeight="1">
-      <c r="A127" s="8">
-        <v>125</v>
-      </c>
-      <c r="B127" s="9">
-        <v>7</v>
-      </c>
-      <c r="C127" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="D127" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="E127" s="11">
-        <v>77</v>
-      </c>
-      <c r="F127" t="s" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="128" ht="20.05" customHeight="1">
-      <c r="A128" s="8">
-        <v>126</v>
-      </c>
-      <c r="B128" s="9">
-        <v>7</v>
-      </c>
-      <c r="C128" t="s" s="10">
-        <v>158</v>
-      </c>
-      <c r="D128" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="E128" s="11">
-        <v>125</v>
-      </c>
-      <c r="F128" t="s" s="10">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="129" ht="20.05" customHeight="1">
-      <c r="A129" s="8">
-        <v>127</v>
-      </c>
-      <c r="B129" s="9">
-        <v>7</v>
-      </c>
-      <c r="C129" t="s" s="10">
-        <v>159</v>
-      </c>
-      <c r="D129" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="E129" s="11">
-        <v>80</v>
-      </c>
-      <c r="F129" t="s" s="10">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="130" ht="20.05" customHeight="1">
-      <c r="A130" s="8">
-        <v>128</v>
-      </c>
-      <c r="B130" s="9">
-        <v>7</v>
-      </c>
-      <c r="C130" t="s" s="10">
-        <v>96</v>
-      </c>
-      <c r="D130" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="E130" s="11">
-        <v>169</v>
-      </c>
-      <c r="F130" t="s" s="10">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="131" ht="20.05" customHeight="1">
-      <c r="A131" s="8">
-        <v>129</v>
-      </c>
-      <c r="B131" s="9">
-        <v>7</v>
-      </c>
-      <c r="C131" t="s" s="10">
-        <v>96</v>
-      </c>
-      <c r="D131" t="s" s="10">
-        <v>58</v>
-      </c>
-      <c r="E131" s="11">
-        <v>314</v>
-      </c>
-      <c r="F131" t="s" s="10">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="132" ht="20.05" customHeight="1">
-      <c r="A132" s="8">
-        <v>130</v>
-      </c>
-      <c r="B132" s="9">
-        <v>7</v>
-      </c>
-      <c r="C132" t="s" s="10">
-        <v>162</v>
-      </c>
-      <c r="D132" t="s" s="10">
-        <v>8</v>
-      </c>
-      <c r="E132" s="11">
-        <v>171</v>
-      </c>
-      <c r="F132" t="s" s="10">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="133" ht="20.05" customHeight="1">
-      <c r="A133" s="8">
-        <v>131</v>
-      </c>
-      <c r="B133" s="9">
-        <v>7</v>
-      </c>
-      <c r="C133" t="s" s="10">
-        <v>163</v>
-      </c>
-      <c r="D133" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="E133" s="11">
-        <v>71</v>
-      </c>
-      <c r="F133" t="s" s="10">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="134" ht="20.05" customHeight="1">
-      <c r="A134" s="8">
-        <v>132</v>
-      </c>
-      <c r="B134" s="9">
-        <v>7</v>
-      </c>
-      <c r="C134" t="s" s="10">
-        <v>72</v>
-      </c>
-      <c r="D134" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="E134" s="11">
-        <v>276</v>
-      </c>
-      <c r="F134" t="s" s="10">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="135" ht="20.05" customHeight="1">
-      <c r="A135" s="8">
-        <v>133</v>
-      </c>
-      <c r="B135" s="9">
-        <v>7</v>
-      </c>
-      <c r="C135" t="s" s="10">
-        <v>165</v>
-      </c>
-      <c r="D135" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="E135" s="11">
-        <v>110</v>
-      </c>
-      <c r="F135" t="s" s="10">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="136" ht="20.05" customHeight="1">
-      <c r="A136" s="8">
-        <v>134</v>
-      </c>
-      <c r="B136" s="9">
-        <v>7</v>
-      </c>
-      <c r="C136" t="s" s="10">
-        <v>166</v>
-      </c>
-      <c r="D136" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="E136" s="11">
-        <v>102</v>
-      </c>
-      <c r="F136" t="s" s="10">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="137" ht="20.05" customHeight="1">
-      <c r="A137" s="8">
-        <v>136</v>
-      </c>
-      <c r="B137" s="9">
-        <v>8</v>
-      </c>
-      <c r="C137" t="s" s="10">
-        <v>139</v>
-      </c>
-      <c r="D137" t="s" s="10">
-        <v>20</v>
-      </c>
-      <c r="E137" s="11">
-        <v>35</v>
-      </c>
-      <c r="F137" t="s" s="10">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="138" ht="20.05" customHeight="1">
-      <c r="A138" s="8">
-        <v>137</v>
-      </c>
-      <c r="B138" s="9">
-        <v>8</v>
-      </c>
-      <c r="C138" t="s" s="10">
-        <v>168</v>
-      </c>
-      <c r="D138" t="s" s="10">
-        <v>58</v>
-      </c>
-      <c r="E138" s="11">
-        <v>82</v>
-      </c>
-      <c r="F138" t="s" s="10">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="139" ht="20.05" customHeight="1">
-      <c r="A139" s="8">
-        <v>138</v>
-      </c>
-      <c r="B139" s="9">
-        <v>8</v>
-      </c>
-      <c r="C139" t="s" s="10">
-        <v>54</v>
-      </c>
-      <c r="D139" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="E139" s="11">
-        <v>190</v>
-      </c>
-      <c r="F139" t="s" s="10">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="140" ht="20.05" customHeight="1">
-      <c r="A140" s="8">
-        <v>139</v>
-      </c>
-      <c r="B140" s="9">
-        <v>8</v>
-      </c>
-      <c r="C140" t="s" s="10">
-        <v>103</v>
-      </c>
-      <c r="D140" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="E140" s="11">
-        <v>35</v>
-      </c>
-      <c r="F140" t="s" s="10">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="141" ht="20.05" customHeight="1">
-      <c r="A141" s="8">
-        <v>140</v>
-      </c>
-      <c r="B141" s="9">
-        <v>8</v>
-      </c>
-      <c r="C141" t="s" s="10">
-        <v>169</v>
-      </c>
-      <c r="D141" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="E141" s="11">
-        <v>16</v>
-      </c>
-      <c r="F141" t="s" s="10">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="142" ht="20.05" customHeight="1">
-      <c r="A142" s="8">
-        <v>141</v>
-      </c>
-      <c r="B142" s="9">
-        <v>8</v>
-      </c>
-      <c r="C142" t="s" s="10">
-        <v>171</v>
-      </c>
-      <c r="D142" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="E142" s="11">
-        <v>99</v>
-      </c>
-      <c r="F142" t="s" s="10">
+      <c r="F142" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4630,8 +4736,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
